--- a/ML/Jupyter Notebooks/data_for_predictions.xlsx
+++ b/ML/Jupyter Notebooks/data_for_predictions.xlsx
@@ -25,34 +25,34 @@
     <t xml:space="preserve">place</t>
   </si>
   <si>
-    <t xml:space="preserve">1st_humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd_humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd_humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4th_humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th_humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature_5</t>
+    <t xml:space="preserve">Humidity_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature_forecast_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature_forecast_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature_forecast_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature_forecast_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature_forecast_5</t>
   </si>
   <si>
     <t xml:space="preserve">Fenophase</t>
@@ -97,19 +97,19 @@
     <t xml:space="preserve">temperature_forecast-5 day</t>
   </si>
   <si>
-    <t xml:space="preserve">is_rain_1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_rain_2 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_rain_3 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_rain_4 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_rain_5 day</t>
+    <t xml:space="preserve">rain_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rain_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rain_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rain_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rain_5</t>
   </si>
   <si>
     <t xml:space="preserve">density</t>
@@ -139,6 +139,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,11 +241,11 @@
   </sheetPr>
   <dimension ref="A2:AE12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2:AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">

--- a/ML/Jupyter Notebooks/data_for_predictions.xlsx
+++ b/ML/Jupyter Notebooks/data_for_predictions.xlsx
@@ -40,19 +40,19 @@
     <t xml:space="preserve">Humidity_5</t>
   </si>
   <si>
-    <t xml:space="preserve">temperature_forecast_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast_5</t>
+    <t xml:space="preserve">Temperature_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature_5</t>
   </si>
   <si>
     <t xml:space="preserve">Fenophase</t>
@@ -82,19 +82,19 @@
     <t xml:space="preserve">Previous_stage_success</t>
   </si>
   <si>
-    <t xml:space="preserve">temperature_forecast-1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast-2 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast-3 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast-4 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_forecast-5 day</t>
+    <t xml:space="preserve"> temperature_forecast_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature_forecast_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature_forecast_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature_forecast_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature_forecast_5</t>
   </si>
   <si>
     <t xml:space="preserve">rain_1</t>
@@ -241,11 +241,11 @@
   </sheetPr>
   <dimension ref="A2:AE12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2:AD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
